--- a/_Rmd/data/rates.xlsx
+++ b/_Rmd/data/rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\Documents\webpage\live\lenkiefer.github.com\chartbooks\jan2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\Documents\Data Viz\blog\preso\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,8 +152,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -49692,10 +49692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2393"/>
+  <dimension ref="A1:F2394"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2381" workbookViewId="0">
-      <selection activeCell="F2393" sqref="F2393"/>
+      <selection activeCell="D2392" sqref="D2392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -89082,6 +89082,30 @@
       <c r="E2393" s="4">
         <v>42762</v>
       </c>
+      <c r="F2393" s="3">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2394" s="1">
+        <f>A2393+7</f>
+        <v>42768</v>
+      </c>
+      <c r="B2394" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C2394" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="D2394" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="E2394" s="4">
+        <v>42768</v>
+      </c>
+      <c r="F2394" s="3">
+        <v>2.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Rmd/data/rates.xlsx
+++ b/_Rmd/data/rates.xlsx
@@ -49772,10 +49772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2402"/>
+  <dimension ref="A1:F2404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2397" workbookViewId="0">
-      <selection activeCell="D2403" sqref="D2403"/>
+      <selection activeCell="D2405" sqref="D2405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -89311,6 +89311,35 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="2403" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2403" s="4">
+        <f>A2402+7</f>
+        <v>42831</v>
+      </c>
+      <c r="B2403" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2403" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="D2403" s="3">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2404" s="4">
+        <v>42838</v>
+      </c>
+      <c r="B2404" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="C2404" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="D2404" s="3">
+        <v>3.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_Rmd/data/rates.xlsx
+++ b/_Rmd/data/rates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="4114" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6857" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data from FRED" sheetId="1" r:id="rId1"/>
@@ -49772,15 +49772,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2404"/>
+  <dimension ref="A1:H2415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2397" workbookViewId="0">
-      <selection activeCell="D2405" sqref="D2405"/>
+    <sheetView tabSelected="1" topLeftCell="A2396" workbookViewId="0">
+      <selection activeCell="D2416" sqref="D2416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69140625" customWidth="1"/>
     <col min="2" max="4" width="9.23046875" style="3"/>
     <col min="5" max="5" width="10.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.23046875" style="3"/>
@@ -88345,7 +88345,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="2353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2353" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2353" s="1">
         <v>42481</v>
       </c>
@@ -88365,7 +88365,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="2354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2354" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2354" s="1">
         <v>42488</v>
       </c>
@@ -88385,7 +88385,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="2355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2355" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2355" s="1">
         <v>42495</v>
       </c>
@@ -88405,7 +88405,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="2356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2356" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2356" s="1">
         <v>42502</v>
       </c>
@@ -88425,7 +88425,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="2357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2357" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2357" s="1">
         <v>42509</v>
       </c>
@@ -88445,7 +88445,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="2358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2358" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2358" s="1">
         <v>42516</v>
       </c>
@@ -88465,7 +88465,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="2359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2359" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2359" s="1">
         <v>42523</v>
       </c>
@@ -88484,8 +88484,9 @@
       <c r="F2359" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="2360" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2359" s="3"/>
+    </row>
+    <row r="2360" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2360" s="1">
         <v>42530</v>
       </c>
@@ -88505,7 +88506,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2361" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2361" s="1">
         <v>42537</v>
       </c>
@@ -88525,7 +88526,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="2362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2362" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2362" s="1">
         <v>42544</v>
       </c>
@@ -88545,7 +88546,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="2363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2363" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2363" s="1">
         <v>42551</v>
       </c>
@@ -88565,7 +88566,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="2364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2364" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2364" s="1">
         <v>42558</v>
       </c>
@@ -88584,8 +88585,9 @@
       <c r="F2364" s="3">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="2365" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2364" s="3"/>
+    </row>
+    <row r="2365" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2365" s="1">
         <v>42565</v>
       </c>
@@ -88604,8 +88606,9 @@
       <c r="F2365" s="3">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="2366" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2365" s="3"/>
+    </row>
+    <row r="2366" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2366" s="1">
         <v>42572</v>
       </c>
@@ -88625,7 +88628,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="2367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2367" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2367" s="1">
         <v>42579</v>
       </c>
@@ -88645,7 +88648,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="2368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2368" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2368" s="1">
         <v>42586</v>
       </c>
@@ -89340,6 +89343,170 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="2405" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2405" s="4">
+        <f>A2404+7</f>
+        <v>42845</v>
+      </c>
+      <c r="B2405" s="3">
+        <v>3.97</v>
+      </c>
+      <c r="C2405" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="D2405" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2406" s="4">
+        <f>A2405+7</f>
+        <v>42852</v>
+      </c>
+      <c r="B2406" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="C2406" s="3">
+        <v>3.27</v>
+      </c>
+      <c r="D2406" s="3">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2407" s="4">
+        <f>A2406+7</f>
+        <v>42859</v>
+      </c>
+      <c r="B2407" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C2407" s="3">
+        <v>3.27</v>
+      </c>
+      <c r="D2407" s="3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2408" s="4">
+        <v>42866</v>
+      </c>
+      <c r="B2408" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="C2408" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="D2408" s="3">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2409" s="4">
+        <f>A2408+7</f>
+        <v>42873</v>
+      </c>
+      <c r="B2409" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C2409" s="3">
+        <v>3.27</v>
+      </c>
+      <c r="D2409" s="3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2410" s="4">
+        <f>A2409+7</f>
+        <v>42880</v>
+      </c>
+      <c r="B2410" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="C2410" s="3">
+        <v>3.19</v>
+      </c>
+      <c r="D2410" s="3">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2411" s="4">
+        <f>A2410+7</f>
+        <v>42887</v>
+      </c>
+      <c r="B2411" s="3">
+        <v>3.94</v>
+      </c>
+      <c r="C2411" s="3">
+        <v>3.19</v>
+      </c>
+      <c r="D2411" s="3">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2412" s="4">
+        <f>A2411+7</f>
+        <v>42894</v>
+      </c>
+      <c r="B2412" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="C2412" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="D2412" s="3">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2413" s="4">
+        <f>A2412+7</f>
+        <v>42901</v>
+      </c>
+      <c r="B2413" s="3">
+        <v>3.91</v>
+      </c>
+      <c r="C2413" s="3">
+        <v>3.18</v>
+      </c>
+      <c r="D2413" s="3">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2414" s="4">
+        <f>A2413+7</f>
+        <v>42908</v>
+      </c>
+      <c r="B2414" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C2414" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="D2414" s="3">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2415" s="4">
+        <f>A2414+7</f>
+        <v>42915</v>
+      </c>
+      <c r="B2415" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="C2415" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="D2415" s="3">
+        <v>3.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
